--- a/kalkulator TIM PWM itp.xlsx
+++ b/kalkulator TIM PWM itp.xlsx
@@ -2067,8 +2067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/kalkulator TIM PWM itp.xlsx
+++ b/kalkulator TIM PWM itp.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="42">
   <si>
     <t>INT_FREQ</t>
   </si>
@@ -134,12 +134,6 @@
     <t>toHigh</t>
   </si>
   <si>
-    <t>Servo1</t>
-  </si>
-  <si>
-    <t>Servo2</t>
-  </si>
-  <si>
     <t>maxCCR</t>
   </si>
   <si>
@@ -161,10 +155,19 @@
     <t>(x - fromLow) * (toHigh - toLow) / (fromHigh - fromLow) + toLow</t>
   </si>
   <si>
-    <t>Servo3</t>
-  </si>
-  <si>
-    <t>Servo4</t>
+    <t>Servo5131</t>
+  </si>
+  <si>
+    <t>Servo5132</t>
+  </si>
+  <si>
+    <t>Servo5133</t>
+  </si>
+  <si>
+    <t>Servo5134</t>
+  </si>
+  <si>
+    <t>Servo5135</t>
   </si>
 </sst>
 </file>
@@ -2068,7 +2071,7 @@
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="G24" sqref="G24:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2132,17 +2135,17 @@
     </row>
     <row r="10" spans="1:11">
       <c r="D10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="B12" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J12" t="s">
         <v>39</v>
@@ -2157,7 +2160,7 @@
         <v>6644.0789473684208</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F13" s="13">
         <v>95</v>
@@ -2166,7 +2169,7 @@
         <v>7300</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J13" s="13">
         <v>97</v>
@@ -2177,7 +2180,7 @@
     </row>
     <row r="14" spans="1:11" ht="15">
       <c r="A14" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B14" s="13">
         <v>83</v>
@@ -2202,7 +2205,7 @@
     </row>
     <row r="15" spans="1:11" ht="15">
       <c r="A15" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B15" s="13">
         <v>45</v>
@@ -2211,7 +2214,7 @@
         <v>5075</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F15" s="13">
         <v>45</v>
@@ -2220,7 +2223,7 @@
         <v>5650</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J15" s="13">
         <v>45</v>
@@ -2231,7 +2234,7 @@
     </row>
     <row r="16" spans="1:11" ht="15">
       <c r="A16" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B16" s="13">
         <v>0</v>
@@ -2240,7 +2243,7 @@
         <v>3680</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F16" s="13">
         <v>0</v>
@@ -2249,7 +2252,7 @@
         <v>4400</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J16" s="13">
         <v>0</v>
@@ -2260,7 +2263,7 @@
     </row>
     <row r="17" spans="1:14" ht="15">
       <c r="A17" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B17" s="13">
         <v>-45</v>
@@ -2269,7 +2272,7 @@
         <v>2375</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F17" s="13">
         <v>-45</v>
@@ -2278,7 +2281,7 @@
         <v>3085</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J17" s="13">
         <v>-45</v>
@@ -2289,7 +2292,7 @@
     </row>
     <row r="18" spans="1:14" ht="15">
       <c r="A18" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B18" s="13">
         <v>-83</v>
@@ -2321,7 +2324,7 @@
         <v>1398.0263157894738</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F19" s="13">
         <v>-95</v>
@@ -2330,7 +2333,7 @@
         <v>1650</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J19" s="13">
         <v>-97</v>
@@ -2343,10 +2346,13 @@
       <c r="B22" t="s">
         <v>40</v>
       </c>
+      <c r="F22" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="23" spans="1:14" ht="15">
       <c r="A23" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B23" s="13">
         <v>90</v>
@@ -2354,14 +2360,23 @@
       <c r="C23" s="13">
         <v>6600</v>
       </c>
+      <c r="E23" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="13">
+        <v>97</v>
+      </c>
+      <c r="G23" s="13">
+        <v>7400</v>
+      </c>
       <c r="L23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M23">
-        <v>6600</v>
+        <v>7400</v>
       </c>
       <c r="N23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -2372,19 +2387,26 @@
         <f>(B24 - B25) * (C23 - C25) / (B23 - B25) + C25</f>
         <v>6600</v>
       </c>
+      <c r="F24">
+        <v>90</v>
+      </c>
+      <c r="G24" s="15">
+        <f>(F24 - F25) * (G23 - G25) / (F23 - F25) + G25</f>
+        <v>7120.6730769230771</v>
+      </c>
       <c r="L24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M24">
-        <v>5125</v>
+        <v>5325</v>
       </c>
       <c r="N24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="15">
       <c r="A25" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B25" s="13">
         <v>45</v>
@@ -2392,19 +2414,28 @@
       <c r="C25" s="13">
         <v>5125</v>
       </c>
+      <c r="E25" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" s="13">
+        <v>45</v>
+      </c>
+      <c r="G25" s="13">
+        <v>5325</v>
+      </c>
       <c r="L25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M25">
-        <v>3850</v>
+        <v>3975</v>
       </c>
       <c r="N25" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="15">
       <c r="A26" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B26" s="13">
         <v>0</v>
@@ -2412,19 +2443,28 @@
       <c r="C26" s="13">
         <v>3850</v>
       </c>
+      <c r="E26" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="13">
+        <v>0</v>
+      </c>
+      <c r="G26" s="13">
+        <v>3975</v>
+      </c>
       <c r="L26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M26">
-        <v>2750</v>
+        <v>2825</v>
       </c>
       <c r="N26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="15">
       <c r="A27" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B27" s="13">
         <v>-45</v>
@@ -2432,14 +2472,23 @@
       <c r="C27" s="13">
         <v>2750</v>
       </c>
+      <c r="E27" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" s="13">
+        <v>-45</v>
+      </c>
+      <c r="G27" s="13">
+        <v>2825</v>
+      </c>
       <c r="L27" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M27">
-        <v>1650</v>
+        <v>1500</v>
       </c>
       <c r="N27" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -2450,16 +2499,32 @@
         <f>(B28 - B27) * (C29 - C27) / (B29 - B27) + C27</f>
         <v>1650</v>
       </c>
+      <c r="F28">
+        <v>-90</v>
+      </c>
+      <c r="G28" s="15">
+        <f>(F28 - F27) * (G29 - G27) / (F29 - F27) + G27</f>
+        <v>1678.3653846153845</v>
+      </c>
     </row>
     <row r="29" spans="1:14" ht="15">
       <c r="A29" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B29" s="13">
         <v>-90</v>
       </c>
       <c r="C29" s="13">
         <v>1650</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29" s="13">
+        <v>-97</v>
+      </c>
+      <c r="G29" s="13">
+        <v>1500</v>
       </c>
     </row>
   </sheetData>

--- a/kalkulator TIM PWM itp.xlsx
+++ b/kalkulator TIM PWM itp.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STM32_Workspace\sg90arma6cvgdb3\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{879505D0-E08B-49B8-B487-40559EC825FA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TIMER" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
     <sheet name="PWM" sheetId="3" r:id="rId3"/>
     <sheet name="FREQ" sheetId="4" r:id="rId4"/>
     <sheet name="FREQ (2)" sheetId="7" r:id="rId5"/>
-    <sheet name="Arkusz2" sheetId="5" r:id="rId6"/>
+    <sheet name="serwa parametry" sheetId="5" r:id="rId6"/>
     <sheet name="Arkusz3" sheetId="6" r:id="rId7"/>
   </sheets>
   <definedNames>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="43">
   <si>
     <t>INT_FREQ</t>
   </si>
@@ -110,15 +111,6 @@
     <t>ms = 1/64000 z 20ms</t>
   </si>
   <si>
-    <t>ms = 1/72000 z 20ms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interpolacja </t>
-  </si>
-  <si>
-    <t>map:</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
@@ -137,9 +129,6 @@
     <t>maxCCR</t>
   </si>
   <si>
-    <t>int</t>
-  </si>
-  <si>
     <t>plus45CCR</t>
   </si>
   <si>
@@ -168,16 +157,32 @@
   </si>
   <si>
     <t>Servo5135</t>
+  </si>
+  <si>
+    <t>interpolacja =&gt; map:</t>
+  </si>
+  <si>
+    <t>WYNIK:</t>
+  </si>
+  <si>
+    <t>Kolumna1</t>
+  </si>
+  <si>
+    <t>Kolumna2</t>
+  </si>
+  <si>
+    <t>Kolumna3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000000"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -220,6 +225,13 @@
       <color rgb="FF000000"/>
       <name val="Czcionka tekstu podstawowego"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Czcionka tekstu podstawowego"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -253,7 +265,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -291,12 +303,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -324,17 +398,200 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Tekst objaśnienia" xfId="1" builtinId="53" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Czcionka tekstu podstawowego"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Czcionka tekstu podstawowego"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Czcionka tekstu podstawowego"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Czcionka tekstu podstawowego"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Czcionka tekstu podstawowego"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Czcionka tekstu podstawowego"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Czcionka tekstu podstawowego"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -913,13 +1170,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>479010</xdr:colOff>
+      <xdr:colOff>317085</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>151920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>355530</xdr:colOff>
+      <xdr:colOff>193605</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>33480</xdr:rowOff>
     </xdr:to>
@@ -954,6 +1211,23 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{26361743-F128-453B-A06A-B95D884C18F0}" name="Tabela2" displayName="Tabela2" ref="A4:H14" totalsRowShown="0" headerRowDxfId="8" dataDxfId="9">
+  <autoFilter ref="A4:H14" xr:uid="{2A9A2F01-6022-40DF-8127-07A7FAAECC8D}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{6BBCAF7E-733F-4849-9883-FB0FD0D2F7AD}" name="Kolumna1" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{EC9D2C06-69BE-4C31-89B7-474F282CBBC5}" name="maxCCR" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{CDD9FD21-DED4-4FC1-BD71-D33701F56595}" name="Kolumna2" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{41998126-860A-44A8-A292-5C5F136F78E0}" name="plus45CCR" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{8270DB2E-589A-4612-8CAF-BABFBE66DEFE}" name="zeroCCR" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{AD735AEF-0726-46FC-9553-6645E18E904C}" name="minus45CCR" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{D77A9AFB-5ABB-436D-BBDA-D4AE47C55EEF}" name="Kolumna3" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{A3EE0565-FF2F-4E7A-A127-3BBEE7FFFAA3}" name="minCCR" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1218,7 +1492,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:E9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1348,7 +1622,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:E10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1483,11 +1757,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:E9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1615,11 +1889,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:E27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1841,11 +2115,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FF002060"/>
+  </sheetPr>
+  <dimension ref="B1:G26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1855,22 +2132,31 @@
     <col min="3" max="3" width="9.875" customWidth="1"/>
     <col min="4" max="4" width="11.375" style="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.875" customWidth="1"/>
-    <col min="6" max="1025" width="8.625" customWidth="1"/>
+    <col min="6" max="6" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="1025" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5">
+    <row r="1" spans="2:7">
       <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="8">
+      <c r="D1" s="28">
         <f>TIM_CLK/((ARR+1)*(PSC+1)*(CKD+1))</f>
         <v>49.999996589770575</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="2:5">
+      <c r="F1" s="9" t="str">
+        <f t="shared" ref="F1:F8" si="0">IF(INT(D1)-D1&lt;&gt;0,"niecalkowite","calkowite")</f>
+        <v>niecalkowite</v>
+      </c>
+      <c r="G1" s="29">
+        <f>ROUND(D1,0)-D1</f>
+        <v>3.4102294250715204E-6</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7">
       <c r="C2" t="s">
         <v>2</v>
       </c>
@@ -1881,8 +2167,16 @@
       <c r="E2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="2:5">
+      <c r="F2" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>niecalkowite</v>
+      </c>
+      <c r="G2" s="29">
+        <f>ROUND(D2,0)-D2</f>
+        <v>-2.0000001364091864E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
       <c r="C3" t="s">
         <v>2</v>
       </c>
@@ -1893,8 +2187,20 @@
       <c r="E3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" ht="15">
+      <c r="F3" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>niecalkowite</v>
+      </c>
+      <c r="G3" s="29">
+        <f>ROUND(D3,0)-D3</f>
+        <v>-1.3640918652413347E-6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="F4" s="9"/>
+      <c r="G4" s="29"/>
+    </row>
+    <row r="5" spans="2:7" ht="15">
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
@@ -1907,8 +2213,16 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" ht="15">
+      <c r="F5" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>calkowite</v>
+      </c>
+      <c r="G5" s="29">
+        <f>ROUND(D5,0)-D5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="15">
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
@@ -1922,8 +2236,16 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" ht="15">
+      <c r="F6" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>calkowite</v>
+      </c>
+      <c r="G6" s="29">
+        <f>ROUND(D6,0)-D6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="15">
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
@@ -1936,8 +2258,16 @@
       <c r="E7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" ht="15">
+      <c r="F7" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>calkowite</v>
+      </c>
+      <c r="G7" s="29">
+        <f>ROUND(D7,0)-D7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="15">
       <c r="B8" s="3" t="s">
         <v>12</v>
       </c>
@@ -1950,8 +2280,16 @@
       <c r="E8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" ht="15">
+      <c r="F8" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>calkowite</v>
+      </c>
+      <c r="G8" s="29">
+        <f>ROUND(D8,0)-D8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="15">
       <c r="B9" s="3" t="s">
         <v>14</v>
       </c>
@@ -1964,25 +2302,34 @@
       <c r="E9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="2:5">
+      <c r="F9" s="9" t="str">
+        <f>IF(INT(D9)-D9&lt;&gt;0,"niecalkowite","calkowite")</f>
+        <v>niecalkowite</v>
+      </c>
+      <c r="G9" s="29">
+        <f>ROUND(D9,0)-D9</f>
+        <v>-4.0922755943029188E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
       <c r="C14" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="9">
-        <v>20</v>
+        <f>D3</f>
+        <v>20.000001364091865</v>
       </c>
       <c r="E14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="2:5">
+    <row r="15" spans="2:7">
       <c r="C15" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="9">
         <f>1/D14*1000</f>
-        <v>50</v>
+        <v>49.999996589770568</v>
       </c>
       <c r="E15" t="s">
         <v>8</v>
@@ -2001,26 +2348,27 @@
         <f>20/(ARR+1)</f>
         <v>3.3333331059847045E-4</v>
       </c>
-      <c r="E19" t="s">
-        <v>22</v>
+      <c r="E19" s="30" t="str">
+        <f>"ms = 1/"&amp;ROUND(ARR,0)+1&amp;" z 20ms"</f>
+        <v>ms = 1/60000 z 20ms</v>
       </c>
     </row>
     <row r="20" spans="3:5">
       <c r="C20">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D20" s="9">
         <f>C20/$D$19</f>
-        <v>4500.0003069206696</v>
+        <v>3000.0002046137797</v>
       </c>
     </row>
     <row r="21" spans="3:5">
       <c r="C21">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D21" s="9">
-        <f t="shared" ref="D21:D26" si="0">C21/$D$19</f>
-        <v>3000.0002046137797</v>
+        <f t="shared" ref="D21:D26" si="1">C21/$D$19</f>
+        <v>4500.0003069206696</v>
       </c>
     </row>
     <row r="22" spans="3:5">
@@ -2028,7 +2376,7 @@
         <v>2</v>
       </c>
       <c r="D22" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6000.0004092275594</v>
       </c>
     </row>
@@ -2037,25 +2385,25 @@
         <v>20</v>
       </c>
       <c r="D23" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60000.004092275602</v>
       </c>
     </row>
     <row r="24" spans="3:5">
       <c r="D24" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="3:5">
       <c r="D25" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="3:5">
       <c r="D26" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2067,474 +2415,432 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24:G28"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="1027" width="8.625" customWidth="1"/>
+    <col min="1" max="1" width="17.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.375" style="16" customWidth="1"/>
+    <col min="3" max="3" width="11" style="16" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="12.25" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="16" customWidth="1"/>
+    <col min="7" max="7" width="12.25" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" style="16" customWidth="1"/>
+    <col min="9" max="9" width="12.25" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.875" style="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" style="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.875" style="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="1027" width="8.625" style="12" customWidth="1"/>
+    <col min="1028" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="B1" t="s">
+      <c r="C1" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="B2" t="s">
+      <c r="E1" s="16" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="B3" t="s">
+      <c r="F1" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C3">
+      <c r="G1" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15">
+      <c r="A2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="16">
         <v>-60</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="15">
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4">
+      <c r="D2" s="16">
         <v>-90</v>
       </c>
-      <c r="F4" s="14">
-        <f xml:space="preserve"> (C3 - C4) * (C7 - C6) / (C5 - C4) + C6</f>
+      <c r="E2" s="16">
+        <v>-45</v>
+      </c>
+      <c r="F2" s="16">
+        <v>-900</v>
+      </c>
+      <c r="G2" s="16">
+        <v>-450</v>
+      </c>
+      <c r="I2" s="13">
+        <f xml:space="preserve"> (C2 - D2) * (G2 - F2) / (E2 - D2) + F2</f>
         <v>-600</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="B5" t="s">
+      <c r="J2" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A4" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C5">
+      <c r="C4" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15">
+      <c r="A5" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="21">
+        <v>83</v>
+      </c>
+      <c r="C5" s="22">
+        <v>90</v>
+      </c>
+      <c r="D5" s="21">
+        <v>45</v>
+      </c>
+      <c r="E5" s="21">
+        <v>0</v>
+      </c>
+      <c r="F5" s="21">
         <v>-45</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="B6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6">
-        <v>-900</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7">
-        <v>-450</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="D10" t="s">
+      <c r="G5" s="22">
+        <v>-90</v>
+      </c>
+      <c r="H5" s="23">
+        <v>-83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A6" s="24"/>
+      <c r="B6" s="25">
+        <v>6400</v>
+      </c>
+      <c r="C6" s="26">
+        <f>(C5 - D5) * (B6 - D6) / (B5 - D5) + D6</f>
+        <v>6644.0789473684208</v>
+      </c>
+      <c r="D6" s="25">
+        <v>5075</v>
+      </c>
+      <c r="E6" s="25">
+        <v>3680</v>
+      </c>
+      <c r="F6" s="25">
+        <v>2375</v>
+      </c>
+      <c r="G6" s="26">
+        <f>(G5 - F5) * (H6 - F6) / (H5 - F5) + F6</f>
+        <v>1398.0263157894738</v>
+      </c>
+      <c r="H6" s="27">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15">
+      <c r="A7" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="21">
+        <v>95</v>
+      </c>
+      <c r="C7" s="22">
+        <v>90</v>
+      </c>
+      <c r="D7" s="21">
+        <v>45</v>
+      </c>
+      <c r="E7" s="21">
+        <v>0</v>
+      </c>
+      <c r="F7" s="21">
+        <v>-45</v>
+      </c>
+      <c r="G7" s="22">
+        <v>-90</v>
+      </c>
+      <c r="H7" s="23">
+        <v>-95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A8" s="24"/>
+      <c r="B8" s="25">
+        <v>7300</v>
+      </c>
+      <c r="C8" s="26">
+        <f>(C7 - D7) * (B8 - D8) / (B7 - D7) + D8</f>
+        <v>7135</v>
+      </c>
+      <c r="D8" s="25">
+        <v>5650</v>
+      </c>
+      <c r="E8" s="25">
+        <v>4400</v>
+      </c>
+      <c r="F8" s="25">
+        <v>3085</v>
+      </c>
+      <c r="G8" s="26">
+        <f>(G7 - F7) * (H8 - F8) / (H7 - F7) + F8</f>
+        <v>1793.5</v>
+      </c>
+      <c r="H8" s="27">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15">
+      <c r="A9" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="21">
+        <v>97</v>
+      </c>
+      <c r="C9" s="22">
+        <v>90</v>
+      </c>
+      <c r="D9" s="21">
+        <v>45</v>
+      </c>
+      <c r="E9" s="21">
+        <v>0</v>
+      </c>
+      <c r="F9" s="21">
+        <v>-45</v>
+      </c>
+      <c r="G9" s="22">
+        <v>-90</v>
+      </c>
+      <c r="H9" s="23">
+        <v>-97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A10" s="24"/>
+      <c r="B10" s="25">
+        <v>8200</v>
+      </c>
+      <c r="C10" s="26">
+        <f>(C9 - D9) * (B10 - D10) / (B9 - D9) + D10</f>
+        <v>7894.4230769230771</v>
+      </c>
+      <c r="D10" s="25">
+        <v>5930</v>
+      </c>
+      <c r="E10" s="25">
+        <v>4550</v>
+      </c>
+      <c r="F10" s="25">
+        <v>3340</v>
+      </c>
+      <c r="G10" s="26">
+        <f>(G9 - F9) * (H10 - F10) / (H9 - F9) + F10</f>
+        <v>2093.8461538461538</v>
+      </c>
+      <c r="H10" s="27">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15">
+      <c r="A11" s="20" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="B12" t="s">
+      <c r="B11" s="21">
+        <v>90</v>
+      </c>
+      <c r="C11" s="22">
+        <v>90</v>
+      </c>
+      <c r="D11" s="21">
+        <v>45</v>
+      </c>
+      <c r="E11" s="21">
+        <v>0</v>
+      </c>
+      <c r="F11" s="21">
+        <v>-45</v>
+      </c>
+      <c r="G11" s="22">
+        <v>-90</v>
+      </c>
+      <c r="H11" s="23">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A12" s="24"/>
+      <c r="B12" s="25">
+        <v>6600</v>
+      </c>
+      <c r="C12" s="26">
+        <f>(C11 - D11) * (B12 - D12) / (B11 - D11) + D12</f>
+        <v>6600</v>
+      </c>
+      <c r="D12" s="25">
+        <v>5125</v>
+      </c>
+      <c r="E12" s="25">
+        <v>3850</v>
+      </c>
+      <c r="F12" s="25">
+        <v>2750</v>
+      </c>
+      <c r="G12" s="26">
+        <f>(G11 - F11) * (H12 - F12) / (H11 - F11) + F12</f>
+        <v>1650</v>
+      </c>
+      <c r="H12" s="27">
+        <v>1650</v>
+      </c>
+      <c r="K12" s="15"/>
+    </row>
+    <row r="13" spans="1:11" ht="15">
+      <c r="A13" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15">
-      <c r="B13">
+      <c r="B13" s="21">
+        <v>97</v>
+      </c>
+      <c r="C13" s="22">
         <v>90</v>
       </c>
-      <c r="C13" s="15">
-        <f>(B13 - B15) * (C14 - C15) / (B14 - B15) + C15</f>
-        <v>6644.0789473684208</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="13">
-        <v>95</v>
-      </c>
-      <c r="G13" s="13">
-        <v>7300</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13" s="13">
-        <v>97</v>
-      </c>
-      <c r="K13" s="13">
-        <v>8200</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15">
-      <c r="A14" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="13">
-        <v>83</v>
-      </c>
-      <c r="C14" s="13">
-        <v>6400</v>
-      </c>
-      <c r="F14">
-        <v>90</v>
-      </c>
-      <c r="G14" s="15">
-        <f>(F14 - F15) * (G13 - G15) / (F13 - F15) + G15</f>
-        <v>7135</v>
-      </c>
-      <c r="J14">
-        <v>90</v>
-      </c>
-      <c r="K14" s="15">
-        <f>(J14 - J15) * (K13 - K15) / (J13 - J15) + K15</f>
-        <v>7894.4230769230771</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="15">
-      <c r="A15" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="13">
+      <c r="D13" s="21">
         <v>45</v>
       </c>
-      <c r="C15" s="13">
-        <v>5075</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="13">
-        <v>45</v>
-      </c>
-      <c r="G15" s="13">
-        <v>5650</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="J15" s="13">
-        <v>45</v>
-      </c>
-      <c r="K15" s="13">
-        <v>5930</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15">
-      <c r="A16" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="13">
+      <c r="E13" s="21">
         <v>0</v>
       </c>
-      <c r="C16" s="13">
-        <v>3680</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="13">
-        <v>0</v>
-      </c>
-      <c r="G16" s="13">
-        <v>4400</v>
-      </c>
-      <c r="I16" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="J16" s="13">
-        <v>0</v>
-      </c>
-      <c r="K16" s="13">
-        <v>4550</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="15">
-      <c r="A17" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="13">
+      <c r="F13" s="21">
         <v>-45</v>
       </c>
-      <c r="C17" s="13">
-        <v>2375</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" s="13">
-        <v>-45</v>
-      </c>
-      <c r="G17" s="13">
-        <v>3085</v>
-      </c>
-      <c r="I17" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="J17" s="13">
-        <v>-45</v>
-      </c>
-      <c r="K17" s="13">
-        <v>3340</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="15">
-      <c r="A18" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="13">
-        <v>-83</v>
-      </c>
-      <c r="C18" s="13">
-        <v>1550</v>
-      </c>
-      <c r="F18">
+      <c r="G13" s="22">
         <v>-90</v>
       </c>
-      <c r="G18" s="15">
-        <f>(F18 - F17) * (G19 - G17) / (F19 - F17) + G17</f>
-        <v>1793.5</v>
-      </c>
-      <c r="J18">
-        <v>-90</v>
-      </c>
-      <c r="K18" s="15">
-        <f>(J18 - J17) * (K19 - K17) / (J19 - J17) + K17</f>
-        <v>2093.8461538461538</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="15">
-      <c r="B19">
-        <v>-90</v>
-      </c>
-      <c r="C19" s="15">
-        <f>(B19 - B17) * (C18 - C17) / (B18 - B17) + C17</f>
-        <v>1398.0263157894738</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" s="13">
-        <v>-95</v>
-      </c>
-      <c r="G19" s="13">
-        <v>1650</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="J19" s="13">
+      <c r="H13" s="23">
         <v>-97</v>
       </c>
-      <c r="K19" s="13">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
-      <c r="B22" t="s">
-        <v>40</v>
-      </c>
-      <c r="F22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="15">
-      <c r="A23" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="13">
-        <v>90</v>
-      </c>
-      <c r="C23" s="13">
-        <v>6600</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F23" s="13">
-        <v>97</v>
-      </c>
-      <c r="G23" s="13">
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A14" s="24"/>
+      <c r="B14" s="25">
         <v>7400</v>
       </c>
-      <c r="L23" t="s">
-        <v>30</v>
-      </c>
-      <c r="M23">
-        <v>7400</v>
-      </c>
-      <c r="N23" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
-      <c r="B24">
-        <v>90</v>
-      </c>
-      <c r="C24" s="15">
-        <f>(B24 - B25) * (C23 - C25) / (B23 - B25) + C25</f>
-        <v>6600</v>
-      </c>
-      <c r="F24">
-        <v>90</v>
-      </c>
-      <c r="G24" s="15">
-        <f>(F24 - F25) * (G23 - G25) / (F23 - F25) + G25</f>
+      <c r="C14" s="26">
+        <f>(C13 - D13) * (B14 - D14) / (B13 - D13) + D14</f>
         <v>7120.6730769230771</v>
       </c>
-      <c r="L24" t="s">
-        <v>32</v>
-      </c>
-      <c r="M24">
+      <c r="D14" s="25">
         <v>5325</v>
       </c>
-      <c r="N24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="15">
-      <c r="A25" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="13">
-        <v>45</v>
-      </c>
-      <c r="C25" s="13">
-        <v>5125</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F25" s="13">
-        <v>45</v>
-      </c>
-      <c r="G25" s="13">
-        <v>5325</v>
-      </c>
-      <c r="L25" t="s">
-        <v>33</v>
-      </c>
-      <c r="M25">
+      <c r="E14" s="25">
         <v>3975</v>
       </c>
-      <c r="N25" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="15">
-      <c r="A26" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" s="13">
-        <v>0</v>
-      </c>
-      <c r="C26" s="13">
-        <v>3850</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F26" s="13">
-        <v>0</v>
-      </c>
-      <c r="G26" s="13">
-        <v>3975</v>
-      </c>
-      <c r="L26" t="s">
-        <v>34</v>
-      </c>
-      <c r="M26">
+      <c r="F14" s="25">
         <v>2825</v>
       </c>
-      <c r="N26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="15">
-      <c r="A27" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="13">
-        <v>-45</v>
-      </c>
-      <c r="C27" s="13">
-        <v>2750</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F27" s="13">
-        <v>-45</v>
-      </c>
-      <c r="G27" s="13">
-        <v>2825</v>
-      </c>
-      <c r="L27" t="s">
-        <v>35</v>
-      </c>
-      <c r="M27">
+      <c r="G14" s="26">
+        <f>(G13 - F13) * (H14 - F14) / (H13 - F13) + F14</f>
+        <v>1678.3653846153845</v>
+      </c>
+      <c r="H14" s="27">
         <v>1500</v>
       </c>
-      <c r="N27" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
-      <c r="B28">
-        <v>-90</v>
-      </c>
-      <c r="C28" s="15">
-        <f>(B28 - B27) * (C29 - C27) / (B29 - B27) + C27</f>
-        <v>1650</v>
-      </c>
-      <c r="F28">
-        <v>-90</v>
-      </c>
-      <c r="G28" s="15">
-        <f>(F28 - F27) * (G29 - G27) / (F29 - F27) + G27</f>
-        <v>1678.3653846153845</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="15">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="13">
-        <v>-90</v>
-      </c>
-      <c r="C29" s="13">
-        <v>1650</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F29" s="13">
-        <v>-97</v>
-      </c>
-      <c r="G29" s="13">
-        <v>1500</v>
-      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15">
+      <c r="A17" s="14"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="C18" s="19"/>
+      <c r="G18" s="19"/>
+    </row>
+    <row r="19" spans="1:7" ht="15">
+      <c r="A19" s="14"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+    </row>
+    <row r="20" spans="1:7" ht="15">
+      <c r="A20" s="14"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+    </row>
+    <row r="21" spans="1:7" ht="15">
+      <c r="A21" s="14"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="C22" s="19"/>
+      <c r="G22" s="19"/>
+    </row>
+    <row r="23" spans="1:7" ht="15">
+      <c r="A23" s="14"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
